--- a/Eye_Tracker_Raw_Data/LookTime/500ms/nolabels/Explicit Retrieval/Tadpole_ET_summary_ER_500ms_NoLabels_.0-.5.xlsx
+++ b/Eye_Tracker_Raw_Data/LookTime/500ms/nolabels/Explicit Retrieval/Tadpole_ET_summary_ER_500ms_NoLabels_.0-.5.xlsx
@@ -50,7 +50,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -354,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO79"/>
+  <dimension ref="A1:AO84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10113,127 +10114,640 @@
       </c>
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+      <c r="A79" s="2">
         <v>89</v>
       </c>
-      <c r="B79" s="1">
-        <v>0</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0</v>
-      </c>
-      <c r="D79" s="1">
-        <v>0</v>
-      </c>
-      <c r="E79" s="1">
-        <v>0</v>
-      </c>
-      <c r="F79" s="1">
-        <v>0</v>
-      </c>
-      <c r="G79" s="1">
-        <v>0</v>
-      </c>
-      <c r="H79" s="1">
-        <v>0</v>
-      </c>
-      <c r="I79" s="1">
-        <v>0</v>
-      </c>
-      <c r="J79" s="1">
-        <v>0</v>
-      </c>
-      <c r="K79" s="1">
-        <v>0</v>
-      </c>
-      <c r="L79" s="1">
-        <v>0</v>
-      </c>
-      <c r="M79" s="1">
-        <v>0</v>
-      </c>
-      <c r="N79" s="1">
-        <v>0</v>
-      </c>
-      <c r="O79" s="1">
-        <v>0</v>
-      </c>
-      <c r="P79" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="1">
-        <v>0</v>
-      </c>
-      <c r="R79" s="1">
-        <v>0</v>
-      </c>
-      <c r="S79" s="1">
-        <v>0</v>
-      </c>
-      <c r="T79" s="1">
-        <v>0</v>
-      </c>
-      <c r="U79" s="1">
-        <v>0</v>
-      </c>
-      <c r="V79" s="1">
-        <v>0</v>
-      </c>
-      <c r="W79" s="1">
-        <v>0</v>
-      </c>
-      <c r="X79" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y79" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO79" s="1">
+      <c r="B79" s="2">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2">
+        <v>0</v>
+      </c>
+      <c r="M79" s="2">
+        <v>0</v>
+      </c>
+      <c r="N79" s="2">
+        <v>0</v>
+      </c>
+      <c r="O79" s="2">
+        <v>0</v>
+      </c>
+      <c r="P79" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>0</v>
+      </c>
+      <c r="R79" s="2">
+        <v>0</v>
+      </c>
+      <c r="S79" s="2">
+        <v>0</v>
+      </c>
+      <c r="T79" s="2">
+        <v>0</v>
+      </c>
+      <c r="U79" s="2">
+        <v>0</v>
+      </c>
+      <c r="V79" s="2">
+        <v>0</v>
+      </c>
+      <c r="W79" s="2">
+        <v>0</v>
+      </c>
+      <c r="X79" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>130</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2">
+        <v>0</v>
+      </c>
+      <c r="M80" s="2">
+        <v>0</v>
+      </c>
+      <c r="N80" s="2">
+        <v>0</v>
+      </c>
+      <c r="O80" s="2">
+        <v>0</v>
+      </c>
+      <c r="P80" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>0</v>
+      </c>
+      <c r="R80" s="2">
+        <v>0</v>
+      </c>
+      <c r="S80" s="2">
+        <v>0</v>
+      </c>
+      <c r="T80" s="2">
+        <v>0</v>
+      </c>
+      <c r="U80" s="2">
+        <v>0</v>
+      </c>
+      <c r="V80" s="2">
+        <v>0</v>
+      </c>
+      <c r="W80" s="2">
+        <v>0</v>
+      </c>
+      <c r="X80" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="AF80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL80" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AM80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>131</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="K81" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="L81" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="M81" s="2">
+        <v>0</v>
+      </c>
+      <c r="N81" s="2">
+        <v>0</v>
+      </c>
+      <c r="O81" s="2">
+        <v>0</v>
+      </c>
+      <c r="P81" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>0</v>
+      </c>
+      <c r="R81" s="2">
+        <v>0</v>
+      </c>
+      <c r="S81" s="2">
+        <v>0</v>
+      </c>
+      <c r="T81" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="U81" s="2">
+        <v>0</v>
+      </c>
+      <c r="V81" s="2">
+        <v>0</v>
+      </c>
+      <c r="W81" s="2">
+        <v>0</v>
+      </c>
+      <c r="X81" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="Y81" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="AA81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="AF81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH81" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="AI81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ81" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="AK81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL81" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AM81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>84</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="2"/>
+      <c r="AC82" s="2"/>
+      <c r="AD82" s="2"/>
+      <c r="AE82" s="2"/>
+      <c r="AF82" s="2"/>
+      <c r="AG82" s="2"/>
+      <c r="AH82" s="2"/>
+      <c r="AI82" s="2"/>
+      <c r="AJ82" s="2"/>
+      <c r="AK82" s="2"/>
+      <c r="AL82" s="2"/>
+      <c r="AM82" s="2"/>
+      <c r="AN82" s="2"/>
+      <c r="AO82" s="2"/>
+    </row>
+    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>88</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L83" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="M83" s="2">
+        <v>0</v>
+      </c>
+      <c r="N83" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="O83" s="2">
+        <v>0</v>
+      </c>
+      <c r="P83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="R83" s="2">
+        <v>0</v>
+      </c>
+      <c r="S83" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="2"/>
+      <c r="AG83" s="2"/>
+      <c r="AH83" s="2"/>
+      <c r="AI83" s="2"/>
+      <c r="AJ83" s="2"/>
+      <c r="AK83" s="2"/>
+      <c r="AL83" s="2"/>
+      <c r="AM83" s="2"/>
+      <c r="AN83" s="2"/>
+      <c r="AO83" s="2"/>
+    </row>
+    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>102</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2">
+        <v>0</v>
+      </c>
+      <c r="M84" s="2">
+        <v>0</v>
+      </c>
+      <c r="N84" s="2">
+        <v>0</v>
+      </c>
+      <c r="O84" s="2">
+        <v>0</v>
+      </c>
+      <c r="P84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>0</v>
+      </c>
+      <c r="R84" s="2">
+        <v>0</v>
+      </c>
+      <c r="S84" s="2">
+        <v>0</v>
+      </c>
+      <c r="T84" s="2">
+        <v>0</v>
+      </c>
+      <c r="U84" s="2">
+        <v>0</v>
+      </c>
+      <c r="V84" s="2">
+        <v>0</v>
+      </c>
+      <c r="W84" s="2">
+        <v>0</v>
+      </c>
+      <c r="X84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO84" s="2">
         <v>0</v>
       </c>
     </row>
